--- a/biology/Botanique/Metzgeria_conjugata/Metzgeria_conjugata.xlsx
+++ b/biology/Botanique/Metzgeria_conjugata/Metzgeria_conjugata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Metzgeria conjugata est une espèce d'hépatiques appartenant à la classe des Jungermanniopsida (hépatiques à lobes) ou à celle des Hepatopsida selon les classifications et à l'ordre des Metzgeriales.
-On la trouve parfois comme épiphyte corticole[1], c'est-à-dire sur les écorces d'arbres, notamment de frênes dans certaines vallées forestières humides. Mais cette espèce est plus rarement corticole que Metzgeria furcata.
+On la trouve parfois comme épiphyte corticole, c'est-à-dire sur les écorces d'arbres, notamment de frênes dans certaines vallées forestières humides. Mais cette espèce est plus rarement corticole que Metzgeria furcata.
 			Metzgeria conjugata
 			Metzgeria conjugata
 </t>
@@ -514,7 +526,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Creux humides et zones boisées humides (notamment dans les hautes terres du nord et de l'ouest de la Grande-Bretagne).
 Elle apprécie les substrats calcaires, tout comme Ctenidium molluscum ou Trichostomum brachydontium qui lui sont souvent associées.
@@ -546,7 +560,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une plante discrète et complètement menacée par la régression des milieux frais et humides.
 </t>
@@ -577,7 +593,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Canada :
 Québec : espèce candidate</t>
@@ -608,7 +626,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Metzgeria minor (Schiffn.) Kuwah.
 Metzgeria japonica (S.Hatt.) Kuwah.
